--- a/ah01.xlsx
+++ b/ah01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\idcatalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0BAD9-8EBB-43DF-8558-A20496B113EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C197D2-FA5D-4AC3-A0DA-F9D4B73F4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BED16E65-E2CF-4AB7-91F0-89AB4EDF2B39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ENLACE</t>
   </si>
@@ -233,6 +233,84 @@
   </si>
   <si>
     <t>AH60019-A01</t>
+  </si>
+  <si>
+    <t>https://images.tcdn.com.br/img/img_prod/877056/oculos_de_grau_ana_hickmann_feminino_ah60042_d01_13689_1_6bc7e996ae1876005b431d7e5111ed21.jpg</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/56586.jpg?crop=center&amp;height=1024&amp;v=1723159761&amp;width=1024</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSGGXvzWWarxcYb7DcsFd-B9X0keLABvfHAcw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQLuCtV-uPqpH0UvQhmSNlZF8RaEc7y4-G_WQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos//52501%20-%20Armacao%20Ana%20Hickmann%20AH60078%20A03%2052-19%2001-800x800.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQjqmLrIySsAQb5Heu0J1zsvhmMM67EvRanyg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSsj22xc_8F4CCpUB7e0DesnuGFSfXR8rR0CQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://lauriaoculos.com/wp-content/uploads/2022/02/AH6383N-A01.jpg</t>
+  </si>
+  <si>
+    <t>https://lenshop.gr/images/products/original/ana-hickmann-ah6384-a01.jpg</t>
+  </si>
+  <si>
+    <t>https://oticasdiniz.vtexassets.com/arquivos/ids/567836-495.1-495.1?v=638488134247830000&amp;width=495.1&amp;height=495.1&amp;aspect=true</t>
+  </si>
+  <si>
+    <t>https://lenshop.gr/images/products/original/ana-hickmann-ah6384-g21.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41vUhdmCSyL.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQiQjNddNjH8k7y9qLh1H8wJ0YdThLzFfJfGw&amp;s</t>
+  </si>
+  <si>
+    <t>AH60042-D01</t>
+  </si>
+  <si>
+    <t>AH60047-G02</t>
+  </si>
+  <si>
+    <t>AH60057-A01</t>
+  </si>
+  <si>
+    <t>AH60065-A01</t>
+  </si>
+  <si>
+    <t>AH60078-A03</t>
+  </si>
+  <si>
+    <t>AH60083-A01</t>
+  </si>
+  <si>
+    <t>AH60083-D01</t>
+  </si>
+  <si>
+    <t>AH6383N-A01</t>
+  </si>
+  <si>
+    <t>AH6384N-A01</t>
+  </si>
+  <si>
+    <t>AH6384N-G01</t>
+  </si>
+  <si>
+    <t>AH6384N-G21</t>
+  </si>
+  <si>
+    <t>AH6407N-A01</t>
+  </si>
+  <si>
+    <t>AH6421N-H01A</t>
   </si>
 </sst>
 </file>
@@ -613,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC23782-82F4-44CD-B62E-89BA7FDFAD0C}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,6 +1065,149 @@
         <v>30</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ah01.xlsx
+++ b/ah01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\idcatalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C197D2-FA5D-4AC3-A0DA-F9D4B73F4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4310B3-5470-44CB-8ACA-6C26AE1626B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BED16E65-E2CF-4AB7-91F0-89AB4EDF2B39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
     <t>ENLACE</t>
   </si>
@@ -311,13 +311,85 @@
   </si>
   <si>
     <t>AH6421N-H01A</t>
+  </si>
+  <si>
+    <t>AH90020-A01</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/56266A.jpg?v=1692213144</t>
+  </si>
+  <si>
+    <t>AH90020-D21</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/56267A.jpg?v=1692213105</t>
+  </si>
+  <si>
+    <t>HI10025-05A</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/56256_grande.jpg?v=1734534988</t>
+  </si>
+  <si>
+    <t>HI10047-04A</t>
+  </si>
+  <si>
+    <t>https://cdn.sistemawbuy.com.br/arquivos/de0f9d459e6b0537fbed094b2cdd7dba/produtos/665799776dea5/hi10047-04a-6659ba3638f1c_mini.jpg</t>
+  </si>
+  <si>
+    <t>HI10047-09A</t>
+  </si>
+  <si>
+    <t>https://imgs.extra.com.br/1570709409/1xg.jpg?imwidth=500</t>
+  </si>
+  <si>
+    <t>HI10048-04A</t>
+  </si>
+  <si>
+    <t>https://cdn.sistemawbuy.com.br/arquivos/de0f9d459e6b0537fbed094b2cdd7dba/produtos/668fde26dafaa/a-6728cdeaa10f1.jpg</t>
+  </si>
+  <si>
+    <t>HI10049-05A</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/101053_1.jpg?crop=center&amp;height=1024&amp;v=1727714814&amp;width=1024</t>
+  </si>
+  <si>
+    <t>HI10050-09A</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos/53633%20-%20Armacao%20Hickmann%20GARDENIA%201%20HI10050%2009A%2054-18%2001-800x800.jpg</t>
+  </si>
+  <si>
+    <t>HI10058-09C</t>
+  </si>
+  <si>
+    <t>https://www.safira.com.br/cdn/imagens/produtos/det/armacao-feminina-ana-hickmann-hi10058-09c-4d3a6fa71cf53442c8574e716dd99fe8.jpg</t>
+  </si>
+  <si>
+    <t>HI10058-13C</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/101054-1.jpg?v=1727714989&amp;width=2000</t>
+  </si>
+  <si>
+    <t>HI10060-01A</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/102933_1.jpg?v=1743794794</t>
+  </si>
+  <si>
+    <t>HI10060-06A</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_983173-MLA95604340215_102025-O.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +401,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,16 +449,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -691,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC23782-82F4-44CD-B62E-89BA7FDFAD0C}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,7 +847,7 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -808,7 +891,7 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -852,7 +935,7 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -874,7 +957,7 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1208,7 +1291,146 @@
         <v>78</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{71EDD163-D296-465A-9ADC-2C15C2EC3A54}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{B9C9AA2F-6DF1-4E40-938E-4EE2FF33CFD7}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{D9688B43-D694-4801-93F1-EC97FBFEF41B}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{5BF05363-C183-458B-AF88-3D780DB823BC}"/>
+    <hyperlink ref="C47" r:id="rId5" xr:uid="{5A283CDD-C38A-45FB-BD09-559811AB700E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ah01.xlsx
+++ b/ah01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\idcatalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4310B3-5470-44CB-8ACA-6C26AE1626B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E51FA-D79A-4CB2-9580-20448D5FE747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BED16E65-E2CF-4AB7-91F0-89AB4EDF2B39}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
   <si>
     <t>ENLACE</t>
   </si>
@@ -383,6 +383,48 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_983173-MLA95604340215_102025-O.webp</t>
+  </si>
+  <si>
+    <t>HI10061-01A</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/%7Bw%7Dx%7Bh%7D/armacao-ana-hickmann-ah10061-01a/oticavisaoweb/25379/f8755098caf3f109b69777e8a28771e0.jpeg</t>
+  </si>
+  <si>
+    <t>HI10061-05A</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos/58825%20-%20Armacao%20Hickmann%20FRESIA%202%20HI10061%2005A%2054-19%2001-800x800.jpg</t>
+  </si>
+  <si>
+    <t>HI1139N-13A</t>
+  </si>
+  <si>
+    <t>https://a-static.mlcdn.com.br/280x210/hickmann-hi1139n-13a-55/oticaviewsiteoficial/33469/8edc749d33ab23f56c2ca6d39a9791ef.jpeg</t>
+  </si>
+  <si>
+    <t>HI1157B-R01</t>
+  </si>
+  <si>
+    <t>https://images.tcdn.com.br/img/img_prod/1390546/90_armacao_oculos_de_grau_feminino_ana_hickmann_hi10060_06a_54_dourado_claro_azul_2159_1_fd68a3a55d5876be2d319204cba1b40e.jpg</t>
+  </si>
+  <si>
+    <t>HI30009-13A</t>
+  </si>
+  <si>
+    <t>https://loja.oticaademar.com.br/image/cache/catalog/Produtos/53635%20-%20Oculos%20de%20Sol%20Hickmann%20AMARILIS%201%20HI30009%2013A%2058-15%2001-800x800.jpg</t>
+  </si>
+  <si>
+    <t>HI40003-G03</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/102939.jpg?v=1743795883</t>
+  </si>
+  <si>
+    <t>HI40003-R03</t>
+  </si>
+  <si>
+    <t>https://oculosshop.com.br/cdn/shop/files/102941_1.jpg?v=1743796028</t>
   </si>
 </sst>
 </file>
@@ -774,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC23782-82F4-44CD-B62E-89BA7FDFAD0C}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,6 +1465,83 @@
         <v>115</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{71EDD163-D296-465A-9ADC-2C15C2EC3A54}"/>
